--- a/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.21285286906511933, 0.06072499437716033, 0.06812913126089609, 0.060483298059570055, 0.05021738949845424, 0.23410544796410082, 0.3352191842114997, 0.19422255156999982, 0.04957058163976607, 0.007986324949219848, 0.04540315127259106, 0.05853440849564695, 0.19281131158029988, 0.3315081623895034, 0.20685281350095344, 0.04132559619650347, 0.030184730589118976, 0.03277735336744266, 0.03250338784933029]</t>
+    <t>[1.0, 0.20984586221624715, 0.06548604999759751, 0.08375437303095808, 0.07498816548374153, 0.06295616565398102, 0.24469576128294146, 0.3451723365128955, 0.20819252268387742, 0.0634223269343312, 0.018172975394580466, 0.062779419257647, 0.06817322485850079, 0.20074977032713964, 0.3328884284719947, 0.2137265184375695, 0.05319782407448279, 0.045007146891732346, 0.048115036873010886, 0.04023490833098028]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.20913260382407003, 0.06347539009839634, 0.07055063996193259, 0.06415686036943861, 0.054345417825860096, 0.2325396234625396, 0.32883520903899943, 0.1924660491976254, 0.053488361999374436, 0.012089071665874168, 0.04876390300331131, 0.06287460679062873, 0.19113180013854433, 0.3246698182371393, 0.2051383886439196, 0.04436091365953478, 0.03418188027816881, 0.03678625245338006, 0.03593054026467448]</t>
+    <t>[1.0, 0.20593867602897628, 0.06803458689607957, 0.08632502668054165, 0.07837768737509772, 0.06693626787079539, 0.2434636491895098, 0.3388296189808189, 0.20703699965912056, 0.0675272409679207, 0.022624236406595707, 0.06613989230059669, 0.0727270420543644, 0.19936949816551625, 0.3263130053291425, 0.21201709783687192, 0.056651691257516096, 0.04902323036608182, 0.052467453308953485, 0.04312539137351179]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>366.9</v>
+        <v>472.9</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.02612905277049464</v>
+        <v>0.05466670095456525</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.01760682098024672</v>
+        <v>-0.0161811157403841</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>44.21099146390223</v>
+        <v>49.6038202290494</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9377581120943953</v>
+        <v>0.913825402772574</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.277079245083521</v>
+        <v>-0.2484522502493774</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.08152656063501779</v>
+        <v>-0.06345877346708208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>45.38365324741918</v>
+        <v>51.54841082646607</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.3592759341764727</v>
+        <v>0.4831494763226852</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.1049064010407248</v>
+        <v>-0.1351458380333136</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>43.03334053681699</v>
+        <v>47.71880068815304</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.20984586221624715, 0.06548604999759751, 0.08375437303095808, 0.07498816548374153, 0.06295616565398102, 0.24469576128294146, 0.3451723365128955, 0.20819252268387742, 0.0634223269343312, 0.018172975394580466, 0.062779419257647, 0.06817322485850079, 0.20074977032713964, 0.3328884284719947, 0.2137265184375695, 0.05319782407448279, 0.045007146891732346, 0.048115036873010886, 0.04023490833098028]</t>
+    <t>[1.0, 0.209838494272853, 0.06607346591695039, 0.08498369905955168, 0.07492847809770685, 0.06190681670077654, 0.24426055155572682, 0.3435636722547642, 0.2080002767046351, 0.06395890061000975, 0.017844567200195734, 0.06326386710418491, 0.068613241361313, 0.20003420259515575, 0.33146322200841605, 0.21340674208965174, 0.054165879043338507, 0.04483562597631995, 0.04947750553422725, 0.040875471039267204]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.20593867602897628, 0.06803458689607957, 0.08632502668054165, 0.07837768737509772, 0.06693626787079539, 0.2434636491895098, 0.3388296189808189, 0.20703699965912056, 0.0675272409679207, 0.022624236406595707, 0.06613989230059669, 0.0727270420543644, 0.19936949816551625, 0.3263130053291425, 0.21201709783687192, 0.056651691257516096, 0.04902323036608182, 0.052467453308953485, 0.04312539137351179]</t>
+    <t>[1.0, 0.20826516817164292, 0.06712775852713737, 0.08663779142785075, 0.07666506926832543, 0.06305255376050972, 0.24361991692219173, 0.340960039104656, 0.20784881194968924, 0.0651468894481849, 0.019431448519720063, 0.06488107482122367, 0.07006047755816869, 0.1994831505400762, 0.32881872335377466, 0.21215501907350934, 0.05550020248074177, 0.04690243670826741, 0.05139791664976233, 0.04220361940047164]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.05466670095456525</v>
+        <v>0.05077876085555474</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.0161811157403841</v>
+        <v>0.1921900119814362</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>49.6038202290494</v>
+        <v>49.59597251600847</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.2484522502493774</v>
+        <v>-0.06887512307874852</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.06345877346708208</v>
+        <v>0.1046406578841975</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>51.54841082646607</v>
+        <v>51.57149564516025</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.4831494763226852</v>
+        <v>0.3653526503391847</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.1351458380333136</v>
+        <v>-0.3750962047132627</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>47.71880068815304</v>
+        <v>47.78371793903636</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.20236085015193364, 0.04964817149011272, 0.0553403171080735, 0.047282504125650986, 0.0371554895212007, 0.22584593094730637, 0.3255107746857683, 0.18553271977363198, 0.03874631997791757, -0.005843756441683032, 0.03287893954219422, 0.047763875913983206, 0.18218757298231453, 0.3221971584906679, 0.1969517602770808, 0.030589900069007126, 0.016954820158925913, 0.020142243835107848, 0.0204675578896551]</t>
+    <t>[0.9999999999999999, 0.20260799747081493, 0.04919150166704316, 0.05429277802523905, 0.04736967659941702, 0.03798439392662625, 0.2265122473035163, 0.3274653924481518, 0.1859990769625859, 0.03820672099433051, -0.005769301243176278, 0.032318980887897045, 0.04734943962213661, 0.1830632214138856, 0.3240974299002695, 0.19759061168874995, 0.029844494167913415, 0.017033788417185784, 0.01892646979476015, 0.019780234049373163]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.20098128390443948, 0.05132633130098332, 0.057438393371754715, 0.04955918232709452, 0.03882609650943687, 0.2251694024821126, 0.32227523349420395, 0.1851155590870871, 0.04052823476432454, -0.0037425278517250952, 0.03503881747922398, 0.04966068988659122, 0.18153902784593534, 0.31889378149130965, 0.19548919054691016, 0.0321894908329743, 0.019477372761921755, 0.0224550939504883, 0.022326750045589785]</t>
+    <t>[1.0, 0.19880933797324749, 0.05248618169215941, 0.05728935354265476, 0.05182603610508294, 0.04286620081499489, 0.2248461022484913, 0.32026542189281054, 0.18410791935439375, 0.0428514506702709, -0.0009480066279570798, 0.03634546821424419, 0.05242379666624795, 0.18128553563518357, 0.3163383837106515, 0.19568527533802135, 0.03338687213494882, 0.021865145105055328, 0.023718508008376923, 0.0238369612856056]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.02594161220341241</v>
+        <v>0.02820800260415238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1776362294231734</v>
+        <v>-0.01537376613605469</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>47.64601471741602</v>
+        <v>47.6528387904176</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.07157690886312021</v>
+        <v>-0.3084452739430301</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1301543204185961</v>
+        <v>-0.0839750369937859</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>48.8831192122439</v>
+        <v>48.84702065543422</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.3363680451154069</v>
+        <v>0.408346165694867</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.3835083498994388</v>
+        <v>-0.1138110822101487</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>46.47645153303714</v>
+        <v>46.43854841019247</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.20260799747081493, 0.04919150166704316, 0.05429277802523905, 0.04736967659941702, 0.03798439392662625, 0.2265122473035163, 0.3274653924481518, 0.1859990769625859, 0.03820672099433051, -0.005769301243176278, 0.032318980887897045, 0.04734943962213661, 0.1830632214138856, 0.3240974299002695, 0.19759061168874995, 0.029844494167913415, 0.017033788417185784, 0.01892646979476015, 0.019780234049373163]</t>
+    <t>[1.0, 0.20260799747081473, 0.049191501667043155, 0.05429277802523907, 0.04736967659941701, 0.037984393926626274, 0.2265122473035162, 0.32746539244815187, 0.1859990769625859, 0.03820672099433051, -0.005769301243176273, 0.03231898088789704, 0.0473494396221366, 0.18306322141388545, 0.32409742990026946, 0.19759061168875014, 0.02984449416791342, 0.017033788417185804, 0.01892646979476013, 0.01978023404937319]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.19880933797324749, 0.05248618169215941, 0.05728935354265476, 0.05182603610508294, 0.04286620081499489, 0.2248461022484913, 0.32026542189281054, 0.18410791935439375, 0.0428514506702709, -0.0009480066279570798, 0.03634546821424419, 0.05242379666624795, 0.18128553563518357, 0.3163383837106515, 0.19568527533802135, 0.03338687213494882, 0.021865145105055328, 0.023718508008376923, 0.0238369612856056]</t>
+    <t>[1.0, 0.19880933797324746, 0.052486181692159406, 0.05728935354265479, 0.05182603610508292, 0.042866200814994926, 0.2248461022484912, 0.3202654218928106, 0.1841079193543938, 0.04285145067027092, -0.000948006627957092, 0.03634546821424424, 0.0524237966662479, 0.18128553563518354, 0.3163383837106516, 0.19568527533802146, 0.033386872134948814, 0.021865145105055356, 0.02371850800837694, 0.023836961285605612]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.02820800260415238</v>
+        <v>0.02820800260415224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.01537376613605469</v>
+        <v>-0.0153737661360547</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>47.6528387904176</v>
+        <v>47.65283879041759</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9352771547580904</v>
+        <v>0.4832781456953643</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.3084452739430301</v>
+        <v>-0.3084452739430296</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.0839750369937859</v>
+        <v>-0.08397503699378575</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.408346165694867</v>
+        <v>0.4083461656948674</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.1138110822101487</v>
+        <v>-0.1138110822101488</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>46.43854841019247</v>
+        <v>46.43854841019248</v>
       </c>
     </row>
     <row r="10" spans="1:2">
